--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>952090.7118364251</v>
+        <v>950203.1303200225</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>558983.9500063334</v>
+        <v>344289.9801459467</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>97.60909373830113</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>83.87329715509158</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646389</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>162.3364906735232</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>34.08346683966627</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>111.1023876523963</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>74.45403095317813</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>99.38122376111774</v>
       </c>
       <c r="V7" t="n">
-        <v>39.37164904375815</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>188.4747298907889</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>313.3627434934233</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>15.91242278797893</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>141.3236091729816</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>145.8066325228116</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.2619490281735</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>119.3786445880206</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>137.9226914996344</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>71.87009689483885</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>59.47484368857528</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>127.7178027211454</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>118.9955446623087</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>8.959789305961296</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>40.44836590436699</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.65680676724942</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>227.8962178880067</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965519</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>40.09370890789676</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437407</v>
+        <v>42.20569823125374</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571482</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523562</v>
+        <v>54.76109577523578</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522959</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329079</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
         <v>42.2873553346313</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>841.766221650837</v>
+        <v>730.9133108563935</v>
       </c>
       <c r="C2" t="n">
-        <v>472.8037047104253</v>
+        <v>730.9133108563935</v>
       </c>
       <c r="D2" t="n">
-        <v>472.8037047104253</v>
+        <v>730.9133108563935</v>
       </c>
       <c r="E2" t="n">
-        <v>472.8037047104253</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>465.8582039612218</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.50539369077</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="X2" t="n">
-        <v>1618.50539369077</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y2" t="n">
-        <v>1228.366061714959</v>
+        <v>1117.513150920515</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4428,31 +4428,31 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>564.1527310008552</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V4" t="n">
-        <v>564.1527310008552</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.353113282533</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4598,19 +4598,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2311.261100528459</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.261100528459</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.492445258345</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.492445258345</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="Y5" t="n">
-        <v>1568.353113282533</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.7691122461817</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146243</v>
+        <v>627.7439097002547</v>
       </c>
       <c r="V7" t="n">
-        <v>369.7691122461817</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="W7" t="n">
-        <v>369.7691122461817</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="X7" t="n">
-        <v>369.7691122461817</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.7691122461817</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1912.197604328644</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304456</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304456</v>
+        <v>2106.957710790048</v>
       </c>
       <c r="W8" t="n">
-        <v>2302.336936304456</v>
+        <v>1754.189055519933</v>
       </c>
       <c r="X8" t="n">
-        <v>2302.336936304456</v>
+        <v>1380.723297258854</v>
       </c>
       <c r="Y8" t="n">
-        <v>1912.197604328644</v>
+        <v>990.5839652830418</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>70.0161361516563</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>70.0161361516563</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>70.0161361516563</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4987,25 +4987,25 @@
         <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587812</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587812</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587812</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587812</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587812</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>70.0161361516563</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,13 +5051,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>772.8730769161741</v>
+        <v>1426.94561082251</v>
       </c>
       <c r="N12" t="n">
-        <v>1364.414563824402</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O12" t="n">
-        <v>2033.878325127062</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,10 +5215,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
@@ -5227,22 +5227,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.156678913841</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W13" t="n">
-        <v>843.7395088768803</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X13" t="n">
-        <v>843.7395088768803</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>727.3132977373111</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5264,31 +5264,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>452.5377573864724</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M15" t="n">
-        <v>772.8730769161741</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.284655180325</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>846.3978353108171</v>
+        <v>217.801580943135</v>
       </c>
       <c r="C16" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>1135.815005347778</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W16" t="n">
-        <v>846.3978353108171</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="X16" t="n">
-        <v>846.3978353108171</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="Y16" t="n">
-        <v>846.3978353108171</v>
+        <v>399.4500457733748</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5595,22 +5595,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>436.8967109626376</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>1050.793780719526</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111988</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>1640.883299539163</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>1889.636713623125</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.1598612984388</v>
+        <v>488.8659712700627</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>319.9297883421558</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>169.81314892982</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119727</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1327.765567434298</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1038.636928647856</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>783.952440441969</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W19" t="n">
-        <v>783.952440441969</v>
+        <v>898.5039869983198</v>
       </c>
       <c r="X19" t="n">
-        <v>783.952440441969</v>
+        <v>670.5144361003024</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.1598612984388</v>
+        <v>670.5144361003024</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,19 +5741,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5765,16 +5765,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>436.8967109626376</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L21" t="n">
-        <v>1050.793780719526</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M21" t="n">
-        <v>1819.161927111988</v>
+        <v>836.471721275012</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>1180.99237691263</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>1850.456138215289</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2370.756759951037</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404655</v>
+        <v>226.2249729967964</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404655</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404655</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404655</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404655</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5941,19 +5941,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V22" t="n">
-        <v>554.8095831774261</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="W22" t="n">
-        <v>265.3924131404655</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="X22" t="n">
-        <v>265.3924131404655</v>
+        <v>447.0175521403265</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404655</v>
+        <v>226.2249729967964</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6026,13 +6026,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.325632214049</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M24" t="n">
-        <v>2056.693778606511</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>564.4843764226425</v>
+        <v>266.1532743881929</v>
       </c>
       <c r="C25" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="V25" t="n">
-        <v>755.183133481126</v>
+        <v>709.451253618899</v>
       </c>
       <c r="W25" t="n">
-        <v>746.1328412528823</v>
+        <v>709.451253618899</v>
       </c>
       <c r="X25" t="n">
-        <v>746.1328412528823</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.1328412528823</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6224,10 +6224,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6266,10 +6266,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6409,25 +6409,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1304.349443112405</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1080.564027901911</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>791.435389115469</v>
+        <v>898.7925182488381</v>
       </c>
       <c r="V28" t="n">
-        <v>536.7509009095821</v>
+        <v>898.7925182488381</v>
       </c>
       <c r="W28" t="n">
-        <v>247.3337308726216</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X28" t="n">
-        <v>247.3337308726216</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726216</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
@@ -6458,34 +6458,34 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N30" t="n">
-        <v>2056.693778606511</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O30" t="n">
-        <v>2056.693778606511</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P30" t="n">
-        <v>2576.994400342258</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163788</v>
+        <v>439.5324299542172</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698427</v>
+        <v>326.3571123076809</v>
       </c>
       <c r="D31" t="n">
-        <v>397.0330520388779</v>
+        <v>232.0013381767161</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723155</v>
+        <v>139.8491098756937</v>
       </c>
       <c r="F31" t="n">
-        <v>265.405273955776</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962049</v>
@@ -6634,37 +6634,37 @@
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818941</v>
+        <v>902.680428981892</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652476</v>
+        <v>730.4517433652454</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652476</v>
+        <v>565.4200295030861</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,22 +6683,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6707,25 +6707,25 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M33" t="n">
-        <v>334.2881267578673</v>
+        <v>1276.47550669726</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6914,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="M36" t="n">
-        <v>334.2881267578673</v>
+        <v>1157.264000062947</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1961.675578327098</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7166,31 +7166,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
@@ -7199,19 +7199,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M39" t="n">
-        <v>334.288126757867</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1681.846941633687</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083207</v>
@@ -7321,7 +7321,7 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M42" t="n">
-        <v>334.288126757867</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7731,22 +7731,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M45" t="n">
-        <v>334.288126757867</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1835.861059011027</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649692</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>450.1554286299202</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,10 +8787,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>221.3717557329472</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,10 +9024,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,19 +9249,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,16 +10200,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>187.0313751303451</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,19 +10428,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10449,7 +10449,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>204.7909259622867</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10686,7 +10686,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,16 +10905,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417972</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>259.4513076703934</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -10923,7 +10923,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11142,13 +11142,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>164.191559763759</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11160,7 +11160,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11379,16 +11379,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>331.8762990088229</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -11397,7 +11397,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>140.7163658137794</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.3227043239213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>47.86817651060719</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>114.2149518241936</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>74.56386575173032</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>162.072717369814</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52901837748245</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.1420986615193</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>277.5632090306297</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>185.2612894846702</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24649,25 +24649,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.2640032163538</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>58.62678044858428</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>51.13699711011522</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.01209316312049</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897896</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.679101716144942e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-2.131628207280301e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>997124.102331158</v>
+        <v>997124.1023311581</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>997124.1023311581</v>
+        <v>997124.102331158</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>997124.102331158</v>
+        <v>997124.1023311581</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>997124.1023311578</v>
+        <v>997124.102331158</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>997124.102331158</v>
+        <v>997124.1023311579</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
-        <v>371477.6067508236</v>
+        <v>371477.6067508235</v>
       </c>
       <c r="F2" t="n">
         <v>371477.6067508236</v>
       </c>
       <c r="G2" t="n">
+        <v>371477.6067508235</v>
+      </c>
+      <c r="H2" t="n">
+        <v>371477.6067508235</v>
+      </c>
+      <c r="I2" t="n">
         <v>371477.6067508236</v>
       </c>
-      <c r="H2" t="n">
-        <v>371477.6067508237</v>
-      </c>
-      <c r="I2" t="n">
-        <v>371477.6067508237</v>
-      </c>
       <c r="J2" t="n">
-        <v>371477.6067508236</v>
+        <v>371477.6067508235</v>
       </c>
       <c r="K2" t="n">
-        <v>386481.0304780068</v>
+        <v>386481.0304780066</v>
       </c>
       <c r="L2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855347</v>
       </c>
       <c r="M2" t="n">
         <v>389994.8406855347</v>
       </c>
       <c r="N2" t="n">
+        <v>389994.8406855348</v>
+      </c>
+      <c r="O2" t="n">
         <v>389994.8406855346</v>
       </c>
-      <c r="O2" t="n">
-        <v>389994.8406855347</v>
-      </c>
       <c r="P2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855346</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008668</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905759307</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758824</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758824</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="F4" t="n">
-        <v>787.7936905758811</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758824</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905759236</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758901</v>
+        <v>787.7936905758772</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477244</v>
+        <v>18952.41620477239</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189633</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189636</v>
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26497,16 +26497,16 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-421891.2557730385</v>
+        <v>-421891.2557730386</v>
       </c>
       <c r="C6" t="n">
         <v>168076.6234415059</v>
@@ -26528,40 +26528,40 @@
         <v>168076.6234415059</v>
       </c>
       <c r="E6" t="n">
-        <v>-246457.5493653649</v>
+        <v>-246555.0084913372</v>
       </c>
       <c r="F6" t="n">
-        <v>278702.4871115311</v>
+        <v>278605.0279855589</v>
       </c>
       <c r="G6" t="n">
-        <v>278702.4871115311</v>
+        <v>278605.0279855588</v>
       </c>
       <c r="H6" t="n">
-        <v>278702.4871115312</v>
+        <v>278605.0279855588</v>
       </c>
       <c r="I6" t="n">
-        <v>278702.4871115311</v>
+        <v>278605.0279855588</v>
       </c>
       <c r="J6" t="n">
-        <v>102279.267918938</v>
+        <v>102181.8087929659</v>
       </c>
       <c r="K6" t="n">
-        <v>226737.8004401658</v>
+        <v>226719.3067022315</v>
       </c>
       <c r="L6" t="n">
-        <v>258730.2471327461</v>
+        <v>258730.247132746</v>
       </c>
       <c r="M6" t="n">
-        <v>134272.1386997759</v>
+        <v>134272.1386997758</v>
       </c>
       <c r="N6" t="n">
+        <v>269073.153933613</v>
+      </c>
+      <c r="O6" t="n">
         <v>269073.1539336129</v>
       </c>
-      <c r="O6" t="n">
-        <v>269073.153933613</v>
-      </c>
       <c r="P6" t="n">
-        <v>224910.5486307672</v>
+        <v>224910.5486307673</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010835</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>284.3212763339607</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>329.9108728657034</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>123.9453835684545</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>218.0541764841617</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>140.121779855893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>274.7869377642349</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>186.90065048086</v>
       </c>
       <c r="V7" t="n">
-        <v>212.7659942800699</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>176.7981618802187</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>14.38951497671161</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>130.5215398585902</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>84.38604621605552</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29035,70 +29035,70 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>1.193711796076968e-12</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31127,10 +31127,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31610,10 +31610,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4518126576417</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31838,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>249.5159911824346</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,16 +32005,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -32084,28 +32084,28 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>280.0351660364687</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,13 +32315,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>216.4869287318327</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813461</v>
@@ -32330,10 +32330,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>258.7716129534833</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32485,7 +32485,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946992</v>
@@ -32552,28 +32552,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>216.4869287318327</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>174.5375503176486</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32786,28 +32786,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>224.6051223555648</v>
+        <v>36.65439372292872</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -32950,7 +32950,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
@@ -33023,19 +33023,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>152.4580040397288</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33047,7 +33047,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33181,7 +33181,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33263,13 +33263,13 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>107.9252528799045</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -33284,7 +33284,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33500,19 +33500,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>178.3204968611101</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -33743,19 +33743,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33883,25 +33883,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,22 +33971,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>341.0678223458549</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34217,10 +34217,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34451,31 +34451,31 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,10 +35258,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>308.0213947079018</v>
       </c>
       <c r="N12" t="n">
-        <v>597.5166534426548</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>126.6237980382196</v>
@@ -35732,19 +35732,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>90.0300436496139</v>
       </c>
       <c r="O15" t="n">
-        <v>531.3012408687538</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>343.1107267700523</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>443.2599741790902</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>343.1107267700523</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>244.6330639674762</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>572.6057846157851</v>
+        <v>384.6550559831489</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>476.0290338677104</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>431.4962827078861</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>47.04960104432353</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>526.3211591213303</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37169,7 +37169,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>62.19468151784229</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197789</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>116.855063225949</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37643,7 +37643,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>32.84984768042567</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37880,7 +37880,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>189.2800545643784</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
